--- a/Code/Results/Cases/Case_2_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48558841836244</v>
+        <v>16.06204481467558</v>
       </c>
       <c r="C2">
-        <v>14.17488251369889</v>
+        <v>9.812188730489245</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.091413180122082</v>
+        <v>11.5997085747307</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>28.27612729079906</v>
+        <v>35.35228157417627</v>
       </c>
       <c r="H2">
-        <v>9.901694706576894</v>
+        <v>15.89065115055791</v>
       </c>
       <c r="I2">
-        <v>14.94116356092542</v>
+        <v>24.39842647788738</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.324359646953683</v>
+        <v>10.11955124519447</v>
       </c>
       <c r="M2">
-        <v>12.49001831480155</v>
+        <v>15.17540566081926</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01812397358003</v>
+        <v>15.54408127764977</v>
       </c>
       <c r="C3">
-        <v>13.37249068429317</v>
+        <v>9.436218910696313</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.156583836899563</v>
+        <v>11.62617660362494</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>27.70744447745058</v>
+        <v>35.48241100409955</v>
       </c>
       <c r="H3">
-        <v>9.975217007498868</v>
+        <v>15.96987771850882</v>
       </c>
       <c r="I3">
-        <v>15.26502396643058</v>
+        <v>24.56573891250344</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.247069107521494</v>
+        <v>10.13051417286695</v>
       </c>
       <c r="M3">
-        <v>11.88847340151217</v>
+        <v>15.06991966843087</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06542563561262</v>
+        <v>15.21934594939388</v>
       </c>
       <c r="C4">
-        <v>12.85647528515462</v>
+        <v>9.19578111948049</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.198212180086104</v>
+        <v>11.64334190461561</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>27.41409129737741</v>
+        <v>35.57943185957705</v>
       </c>
       <c r="H4">
-        <v>10.03289241873345</v>
+        <v>16.02255113301347</v>
       </c>
       <c r="I4">
-        <v>15.48398711424428</v>
+        <v>24.67524438378815</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.20255920768507</v>
+        <v>10.13874153750899</v>
       </c>
       <c r="M4">
-        <v>11.5086480839006</v>
+        <v>15.00713458932451</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66408978199991</v>
+        <v>15.08553050268584</v>
       </c>
       <c r="C5">
-        <v>12.6403768151924</v>
+        <v>9.095475666626919</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.215584479326564</v>
+        <v>11.65056735504728</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>27.30814768628271</v>
+        <v>35.62323429148654</v>
       </c>
       <c r="H5">
-        <v>10.05936056476839</v>
+        <v>16.0450257032762</v>
       </c>
       <c r="I5">
-        <v>15.57793719613914</v>
+        <v>24.72156874038151</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.185158751134977</v>
+        <v>10.1424706361239</v>
       </c>
       <c r="M5">
-        <v>11.35140901145138</v>
+        <v>14.98206857425658</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59665366051948</v>
+        <v>15.06322720577416</v>
       </c>
       <c r="C6">
-        <v>12.60414443276242</v>
+        <v>9.078682341868173</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.218493884724459</v>
+        <v>11.65178107376305</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>27.29136286311846</v>
+        <v>35.63076408514712</v>
       </c>
       <c r="H6">
-        <v>10.06392936907165</v>
+        <v>16.04881848207676</v>
       </c>
       <c r="I6">
-        <v>15.59381351159222</v>
+        <v>24.72936343647573</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.182313855692973</v>
+        <v>10.1431125865105</v>
       </c>
       <c r="M6">
-        <v>11.3251569588697</v>
+        <v>14.977938338527</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06006628062316</v>
+        <v>15.21754699327366</v>
       </c>
       <c r="C7">
-        <v>12.85358437619932</v>
+        <v>9.194437656698247</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.198444811663526</v>
+        <v>11.64343841559326</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>27.4126080761251</v>
+        <v>35.58000537715773</v>
       </c>
       <c r="H7">
-        <v>10.0332376125555</v>
+        <v>16.02285014876699</v>
       </c>
       <c r="I7">
-        <v>15.48523546173276</v>
+        <v>24.675862251827</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.20232155729391</v>
+        <v>10.13879030530096</v>
       </c>
       <c r="M7">
-        <v>11.50653719515855</v>
+        <v>15.00679441061683</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.99026281564215</v>
+        <v>15.88495878377198</v>
       </c>
       <c r="C8">
-        <v>13.90308653997672</v>
+        <v>9.684593467095569</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.113550812940541</v>
+        <v>11.60864548591103</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>28.06822375633024</v>
+        <v>35.3935737254694</v>
       </c>
       <c r="H8">
-        <v>9.924329341314625</v>
+        <v>15.91713057050847</v>
       </c>
       <c r="I8">
-        <v>15.04844254384983</v>
+        <v>24.45470744349881</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.297096538002508</v>
+        <v>10.12302087532827</v>
       </c>
       <c r="M8">
-        <v>12.28487591961723</v>
+        <v>15.13863494965816</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.37057980787363</v>
+        <v>17.13249556972094</v>
       </c>
       <c r="C9">
-        <v>15.77485167551649</v>
+        <v>10.56642648913219</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.959754090537834</v>
+        <v>11.54763732432126</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>29.81192830553812</v>
+        <v>35.16547265956542</v>
       </c>
       <c r="H9">
-        <v>9.818964651941009</v>
+        <v>15.7419160958752</v>
       </c>
       <c r="I9">
-        <v>14.3686142139322</v>
+        <v>24.07494638829064</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.506452262302482</v>
+        <v>10.10395837388312</v>
       </c>
       <c r="M9">
-        <v>13.83624528637858</v>
+        <v>15.41197557646064</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61481957518077</v>
+        <v>18.00207716687726</v>
       </c>
       <c r="C10">
-        <v>17.03650934991586</v>
+        <v>11.16224439437437</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.854330411416673</v>
+        <v>11.50717453844395</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>31.38748434508679</v>
+        <v>35.08375903711858</v>
       </c>
       <c r="H10">
-        <v>9.820088564941651</v>
+        <v>15.63294982712086</v>
       </c>
       <c r="I10">
-        <v>14.00382794191754</v>
+        <v>23.82904395906861</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.674756841566285</v>
+        <v>10.09716899829199</v>
       </c>
       <c r="M10">
-        <v>15.06362310894162</v>
+        <v>15.6205234149592</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.58555923099802</v>
+        <v>18.38575351758728</v>
       </c>
       <c r="C11">
-        <v>17.58619926559261</v>
+        <v>11.42138521144217</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.80798426971451</v>
+        <v>11.4897047750375</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>32.17020567838381</v>
+        <v>35.0656063066787</v>
       </c>
       <c r="H11">
-        <v>9.840496387601707</v>
+        <v>15.58771194037852</v>
       </c>
       <c r="I11">
-        <v>13.87399411204261</v>
+        <v>23.72442021807237</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.754509989671427</v>
+        <v>10.09564257166035</v>
       </c>
       <c r="M11">
-        <v>15.59577815134736</v>
+        <v>15.71678767825664</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.94608872351533</v>
+        <v>18.52920770784186</v>
       </c>
       <c r="C12">
-        <v>17.79091727585973</v>
+        <v>11.51776282472831</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.790664038348088</v>
+        <v>11.48322348964036</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>32.47620609948908</v>
+        <v>35.06149278770916</v>
       </c>
       <c r="H12">
-        <v>9.851327121733405</v>
+        <v>15.571207958805</v>
       </c>
       <c r="I12">
-        <v>13.83066443595592</v>
+        <v>23.68584787975128</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.785173300037932</v>
+        <v>10.09528863814354</v>
       </c>
       <c r="M12">
-        <v>15.79360237163149</v>
+        <v>15.75341634089101</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.86875418459034</v>
+        <v>18.49839575701507</v>
       </c>
       <c r="C13">
-        <v>17.74697954194298</v>
+        <v>11.49708476843154</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.794384051555315</v>
+        <v>11.48461339421146</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>32.40987476991985</v>
+        <v>35.06225556451617</v>
       </c>
       <c r="H13">
-        <v>9.848852641504854</v>
+        <v>15.57473445698415</v>
       </c>
       <c r="I13">
-        <v>13.83972589509414</v>
+        <v>23.69410849374411</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.778548760643512</v>
+        <v>10.0953549069366</v>
       </c>
       <c r="M13">
-        <v>15.75116029831746</v>
+        <v>15.74552030014693</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.61536099963206</v>
+        <v>18.39759303328648</v>
       </c>
       <c r="C14">
-        <v>17.60311010185269</v>
+        <v>11.42934961538199</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.806554721727262</v>
+        <v>11.48916887093473</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>32.19518750399649</v>
+        <v>35.06521242655311</v>
       </c>
       <c r="H14">
-        <v>9.841323855816002</v>
+        <v>15.58634156773002</v>
       </c>
       <c r="I14">
-        <v>13.87030852111056</v>
+        <v>23.72122584475524</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.757023382178487</v>
+        <v>10.0956089655727</v>
       </c>
       <c r="M14">
-        <v>15.61212679751497</v>
+        <v>15.71979776796791</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45923433771013</v>
+        <v>18.33560593816621</v>
       </c>
       <c r="C15">
-        <v>17.51453993869773</v>
+        <v>11.38763039158548</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.814039523605307</v>
+        <v>11.49197668260456</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>32.06493876476397</v>
+        <v>35.06738378820219</v>
       </c>
       <c r="H15">
-        <v>9.837123570787243</v>
+        <v>15.59353297544491</v>
       </c>
       <c r="I15">
-        <v>13.8898212524456</v>
+        <v>23.73797244511304</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.743898837049847</v>
+        <v>10.09579374982312</v>
       </c>
       <c r="M15">
-        <v>15.52648637032673</v>
+        <v>15.70406407841976</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55038211622678</v>
+        <v>17.97675258299385</v>
       </c>
       <c r="C16">
-        <v>17.00010177592992</v>
+        <v>11.14506572156003</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.857391516580832</v>
+        <v>11.50833503128493</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>31.33766944654307</v>
+        <v>35.0853303469277</v>
       </c>
       <c r="H16">
-        <v>9.819175787697802</v>
+        <v>15.63599371058905</v>
       </c>
       <c r="I16">
-        <v>14.01309321219552</v>
+        <v>23.8360274900176</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.669609273635975</v>
+        <v>10.09730014319013</v>
       </c>
       <c r="M16">
-        <v>15.02832476885911</v>
+        <v>15.61425824528412</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9800809370177</v>
+        <v>17.75346655640784</v>
       </c>
       <c r="C17">
-        <v>16.67833085125395</v>
+        <v>10.99318021306884</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.884398007481868</v>
+        <v>11.51860989851871</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>30.90850015239528</v>
+        <v>35.10123061928323</v>
       </c>
       <c r="H17">
-        <v>9.81343183600071</v>
+        <v>15.66315405371853</v>
       </c>
       <c r="I17">
-        <v>14.09840500480285</v>
+        <v>23.898038891199</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.624854426821027</v>
+        <v>10.09862400047147</v>
       </c>
       <c r="M17">
-        <v>14.71606239403785</v>
+        <v>15.55950473035677</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.64732665957085</v>
+        <v>17.62392469172019</v>
       </c>
       <c r="C18">
-        <v>16.49097083360484</v>
+        <v>10.90470170935451</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.900083201619394</v>
+        <v>11.52460795704696</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>30.66786002298188</v>
+        <v>35.11216490903217</v>
       </c>
       <c r="H18">
-        <v>9.811986042084058</v>
+        <v>15.6791834310677</v>
       </c>
       <c r="I18">
-        <v>14.15083085687188</v>
+        <v>23.93438718773503</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.599412641312717</v>
+        <v>10.09953251699292</v>
       </c>
       <c r="M18">
-        <v>14.53398776016545</v>
+        <v>15.52814476050429</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.53384470871104</v>
+        <v>17.57987679682372</v>
       </c>
       <c r="C19">
-        <v>16.42714011150944</v>
+        <v>10.87455378843952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.90542006420527</v>
+        <v>11.52665396795667</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>30.58744576670844</v>
+        <v>35.11617347296246</v>
       </c>
       <c r="H19">
-        <v>9.811808342688723</v>
+        <v>15.6846805709768</v>
       </c>
       <c r="I19">
-        <v>14.16913919018526</v>
+        <v>23.94681089091762</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.590849927646807</v>
+        <v>10.09986539932053</v>
       </c>
       <c r="M19">
-        <v>14.47191413243571</v>
+        <v>15.51755038402858</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.04127919397055</v>
+        <v>17.77735193967665</v>
       </c>
       <c r="C20">
-        <v>16.71282019198489</v>
+        <v>11.00946471748925</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.881507425836034</v>
+        <v>11.51750699459461</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>30.95354273818703</v>
+        <v>35.09935266930982</v>
       </c>
       <c r="H20">
-        <v>9.813849259973249</v>
+        <v>15.66022059027798</v>
       </c>
       <c r="I20">
-        <v>14.08897152384739</v>
+        <v>23.89136715364866</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.629587583513725</v>
+        <v>10.09846785616022</v>
       </c>
       <c r="M20">
-        <v>14.74955833605046</v>
+        <v>15.56531977195759</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.68997934264464</v>
+        <v>18.42725197934266</v>
       </c>
       <c r="C21">
-        <v>17.64546087679008</v>
+        <v>11.44929296308559</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.802973669090541</v>
+        <v>11.48782718135877</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>32.25798496213738</v>
+        <v>35.06426881905356</v>
       </c>
       <c r="H21">
-        <v>9.84344908828178</v>
+        <v>15.58291524138694</v>
       </c>
       <c r="I21">
-        <v>13.86116188929943</v>
+        <v>23.71323237732351</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.763333317515532</v>
+        <v>10.09552826529435</v>
       </c>
       <c r="M21">
-        <v>15.6530638605844</v>
+        <v>15.72734853772396</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.72637438595262</v>
+        <v>18.84125127573572</v>
       </c>
       <c r="C22">
-        <v>18.23499166452004</v>
+        <v>11.72651082244485</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.752987719152811</v>
+        <v>11.46921127437288</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>33.16652308460154</v>
+        <v>35.05743917197092</v>
       </c>
       <c r="H22">
-        <v>9.880994305590837</v>
+        <v>15.53604593526572</v>
       </c>
       <c r="I22">
-        <v>13.74662589359347</v>
+        <v>23.6029129531657</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.853442779799845</v>
+        <v>10.09491294182625</v>
       </c>
       <c r="M22">
-        <v>16.22208089614073</v>
+        <v>15.83425476448184</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17694286719685</v>
+        <v>18.62131300953667</v>
       </c>
       <c r="C23">
-        <v>17.92215831866434</v>
+        <v>11.57950329695283</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.77954396983956</v>
+        <v>11.47907561730085</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>32.6764593238339</v>
+        <v>35.05960367361225</v>
       </c>
       <c r="H23">
-        <v>9.859209520494142</v>
+        <v>15.5607253551199</v>
       </c>
       <c r="I23">
-        <v>13.80438630037052</v>
+        <v>23.66123229700326</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.805101056044786</v>
+        <v>10.09512206230238</v>
       </c>
       <c r="M23">
-        <v>15.92032436721406</v>
+        <v>15.77711271854736</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.01362667475286</v>
+        <v>17.76655699804536</v>
       </c>
       <c r="C24">
-        <v>16.69723494539816</v>
+        <v>11.00210609526142</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.882813763027762</v>
+        <v>11.51800533427503</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.93316000889211</v>
+        <v>35.10019610723755</v>
       </c>
       <c r="H24">
-        <v>9.813654778333712</v>
+        <v>15.66154551806059</v>
       </c>
       <c r="I24">
-        <v>14.09322592390607</v>
+        <v>23.89438127501711</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.627446825415741</v>
+        <v>10.09853798978136</v>
       </c>
       <c r="M24">
-        <v>14.73442277145657</v>
+        <v>15.56269042042772</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.49869691830087</v>
+        <v>16.80262022683755</v>
       </c>
       <c r="C25">
-        <v>15.28849970562658</v>
+        <v>10.33677843651951</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.000019775881247</v>
+        <v>11.56337298888685</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>29.28933665422884</v>
+        <v>35.21223690985264</v>
       </c>
       <c r="H25">
-        <v>9.834616209009736</v>
+        <v>15.78585965406964</v>
       </c>
       <c r="I25">
-        <v>14.53101513991206</v>
+        <v>24.17188547871214</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.447282573420596</v>
+        <v>10.10784671996139</v>
       </c>
       <c r="M25">
-        <v>13.36058214370076</v>
+        <v>15.33657696960899</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.06204481467558</v>
+        <v>21.48558841836235</v>
       </c>
       <c r="C2">
-        <v>9.812188730489245</v>
+        <v>14.17488251369888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.5997085747307</v>
+        <v>7.091413180122082</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>35.35228157417627</v>
+        <v>28.27612729079931</v>
       </c>
       <c r="H2">
-        <v>15.89065115055791</v>
+        <v>9.901694706576976</v>
       </c>
       <c r="I2">
-        <v>24.39842647788738</v>
+        <v>14.94116356092565</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.11955124519447</v>
+        <v>6.324359646953661</v>
       </c>
       <c r="M2">
-        <v>15.17540566081926</v>
+        <v>12.49001831480157</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.54408127764977</v>
+        <v>20.01812397358003</v>
       </c>
       <c r="C3">
-        <v>9.436218910696313</v>
+        <v>13.37249068429321</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.62617660362494</v>
+        <v>7.156583836899697</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>35.48241100409955</v>
+        <v>27.70744447745047</v>
       </c>
       <c r="H3">
-        <v>15.96987771850882</v>
+        <v>9.975217007498809</v>
       </c>
       <c r="I3">
-        <v>24.56573891250344</v>
+        <v>15.26502396643048</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.13051417286695</v>
+        <v>6.24706910752155</v>
       </c>
       <c r="M3">
-        <v>15.06991966843087</v>
+        <v>11.88847340151218</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.21934594939388</v>
+        <v>19.0654256356126</v>
       </c>
       <c r="C4">
-        <v>9.19578111948049</v>
+        <v>12.85647528515452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.64334190461561</v>
+        <v>7.198212180086102</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>35.57943185957705</v>
+        <v>27.41409129737771</v>
       </c>
       <c r="H4">
-        <v>16.02255113301347</v>
+        <v>10.03289241873352</v>
       </c>
       <c r="I4">
-        <v>24.67524438378815</v>
+        <v>15.48398711424448</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.13874153750899</v>
+        <v>6.202559207685093</v>
       </c>
       <c r="M4">
-        <v>15.00713458932451</v>
+        <v>11.5086480839006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.08553050268584</v>
+        <v>18.66408978199993</v>
       </c>
       <c r="C5">
-        <v>9.095475666626919</v>
+        <v>12.64037681519228</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.65056735504728</v>
+        <v>7.215584479326564</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>35.62323429148654</v>
+        <v>27.30814768628257</v>
       </c>
       <c r="H5">
-        <v>16.0450257032762</v>
+        <v>10.05936056476837</v>
       </c>
       <c r="I5">
-        <v>24.72156874038151</v>
+        <v>15.57793719613903</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.1424706361239</v>
+        <v>6.185158751134991</v>
       </c>
       <c r="M5">
-        <v>14.98206857425658</v>
+        <v>11.35140901145138</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.06322720577416</v>
+        <v>18.59665366051962</v>
       </c>
       <c r="C6">
-        <v>9.078682341868173</v>
+        <v>12.60414443276219</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.65178107376305</v>
+        <v>7.218493884724392</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>35.63076408514712</v>
+        <v>27.29136286311799</v>
       </c>
       <c r="H6">
-        <v>16.04881848207676</v>
+        <v>10.06392936907146</v>
       </c>
       <c r="I6">
-        <v>24.72936343647573</v>
+        <v>15.59381351159176</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.1431125865105</v>
+        <v>6.182313855692994</v>
       </c>
       <c r="M6">
-        <v>14.977938338527</v>
+        <v>11.32515695886963</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.21754699327366</v>
+        <v>19.06006628062316</v>
       </c>
       <c r="C7">
-        <v>9.194437656698247</v>
+        <v>12.85358437619923</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.64343841559326</v>
+        <v>7.198444811663459</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>35.58000537715773</v>
+        <v>27.41260807612506</v>
       </c>
       <c r="H7">
-        <v>16.02285014876699</v>
+        <v>10.03323761255552</v>
       </c>
       <c r="I7">
-        <v>24.675862251827</v>
+        <v>15.48523546173271</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.13879030530096</v>
+        <v>6.202321557293913</v>
       </c>
       <c r="M7">
-        <v>15.00679441061683</v>
+        <v>11.50653719515853</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.88495878377198</v>
+        <v>20.99026281564213</v>
       </c>
       <c r="C8">
-        <v>9.684593467095569</v>
+        <v>13.90308653997668</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.60864548591103</v>
+        <v>7.113550812940608</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>35.3935737254694</v>
+        <v>28.06822375633058</v>
       </c>
       <c r="H8">
-        <v>15.91713057050847</v>
+        <v>9.924329341314731</v>
       </c>
       <c r="I8">
-        <v>24.45470744349881</v>
+        <v>15.04844254384994</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.12302087532827</v>
+        <v>6.297096538002537</v>
       </c>
       <c r="M8">
-        <v>15.13863494965816</v>
+        <v>12.28487591961724</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.13249556972094</v>
+        <v>24.37057980787356</v>
       </c>
       <c r="C9">
-        <v>10.56642648913219</v>
+        <v>15.77485167551675</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.54763732432126</v>
+        <v>6.959754090538103</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>35.16547265956542</v>
+        <v>29.8119283055383</v>
       </c>
       <c r="H9">
-        <v>15.7419160958752</v>
+        <v>9.818964651941062</v>
       </c>
       <c r="I9">
-        <v>24.07494638829064</v>
+        <v>14.36861421393246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.10395837388312</v>
+        <v>6.506452262302476</v>
       </c>
       <c r="M9">
-        <v>15.41197557646064</v>
+        <v>13.83624528637851</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.00207716687726</v>
+        <v>26.61481957518071</v>
       </c>
       <c r="C10">
-        <v>11.16224439437437</v>
+        <v>17.03650934991588</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.50717453844395</v>
+        <v>6.854330411416671</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>35.08375903711858</v>
+        <v>31.38748434508712</v>
       </c>
       <c r="H10">
-        <v>15.63294982712086</v>
+        <v>9.820088564941692</v>
       </c>
       <c r="I10">
-        <v>23.82904395906861</v>
+        <v>14.00382794191772</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.09716899829199</v>
+        <v>6.674756841566309</v>
       </c>
       <c r="M10">
-        <v>15.6205234149592</v>
+        <v>15.0636231089416</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38575351758728</v>
+        <v>27.58555923099795</v>
       </c>
       <c r="C11">
-        <v>11.42138521144217</v>
+        <v>17.58619926559289</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.4897047750375</v>
+        <v>6.807984269714508</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>35.0656063066787</v>
+        <v>32.17020567838404</v>
       </c>
       <c r="H11">
-        <v>15.58771194037852</v>
+        <v>9.840496387601744</v>
       </c>
       <c r="I11">
-        <v>23.72442021807237</v>
+        <v>13.87399411204283</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.09564257166035</v>
+        <v>6.754509989671324</v>
       </c>
       <c r="M11">
-        <v>15.71678767825664</v>
+        <v>15.59577815134735</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52920770784186</v>
+        <v>27.94608872351533</v>
       </c>
       <c r="C12">
-        <v>11.51776282472831</v>
+        <v>17.79091727585962</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.48322348964036</v>
+        <v>6.790664038348088</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>35.06149278770916</v>
+        <v>32.47620609948909</v>
       </c>
       <c r="H12">
-        <v>15.571207958805</v>
+        <v>9.851327121733405</v>
       </c>
       <c r="I12">
-        <v>23.68584787975128</v>
+        <v>13.83066443595595</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.09528863814354</v>
+        <v>6.785173300037909</v>
       </c>
       <c r="M12">
-        <v>15.75341634089101</v>
+        <v>15.79360237163147</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.49839575701507</v>
+        <v>27.86875418459031</v>
       </c>
       <c r="C13">
-        <v>11.49708476843154</v>
+        <v>17.74697954194298</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.48461339421146</v>
+        <v>6.794384051555381</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>35.06225556451617</v>
+        <v>32.4098747699198</v>
       </c>
       <c r="H13">
-        <v>15.57473445698415</v>
+        <v>9.848852641504873</v>
       </c>
       <c r="I13">
-        <v>23.69410849374411</v>
+        <v>13.83972589509419</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.0953549069366</v>
+        <v>6.778548760643521</v>
       </c>
       <c r="M13">
-        <v>15.74552030014693</v>
+        <v>15.75116029831743</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.39759303328648</v>
+        <v>27.61536099963204</v>
       </c>
       <c r="C14">
-        <v>11.42934961538199</v>
+        <v>17.60311010185279</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.48916887093473</v>
+        <v>6.806554721727327</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>35.06521242655311</v>
+        <v>32.19518750399656</v>
       </c>
       <c r="H14">
-        <v>15.58634156773002</v>
+        <v>9.841323855815993</v>
       </c>
       <c r="I14">
-        <v>23.72122584475524</v>
+        <v>13.87030852111062</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.0956089655727</v>
+        <v>6.757023382178468</v>
       </c>
       <c r="M14">
-        <v>15.71979776796791</v>
+        <v>15.61212679751496</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33560593816621</v>
+        <v>27.45923433771016</v>
       </c>
       <c r="C15">
-        <v>11.38763039158548</v>
+        <v>17.51453993869777</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.49197668260456</v>
+        <v>6.814039523605174</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>35.06738378820219</v>
+        <v>32.064938764764</v>
       </c>
       <c r="H15">
-        <v>15.59353297544491</v>
+        <v>9.837123570787224</v>
       </c>
       <c r="I15">
-        <v>23.73797244511304</v>
+        <v>13.88982125244556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.09579374982312</v>
+        <v>6.743898837049773</v>
       </c>
       <c r="M15">
-        <v>15.70406407841976</v>
+        <v>15.52648637032677</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.97675258299385</v>
+        <v>26.55038211622674</v>
       </c>
       <c r="C16">
-        <v>11.14506572156003</v>
+        <v>17.00010177592999</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.50833503128493</v>
+        <v>6.857391516580968</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>35.0853303469277</v>
+        <v>31.33766944654316</v>
       </c>
       <c r="H16">
-        <v>15.63599371058905</v>
+        <v>9.819175787697857</v>
       </c>
       <c r="I16">
-        <v>23.8360274900176</v>
+        <v>14.01309321219568</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.09730014319013</v>
+        <v>6.669609273636038</v>
       </c>
       <c r="M16">
-        <v>15.61425824528412</v>
+        <v>15.02832476885906</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.75346655640784</v>
+        <v>25.98008093701768</v>
       </c>
       <c r="C17">
-        <v>10.99318021306884</v>
+        <v>16.67833085125379</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.51860989851871</v>
+        <v>6.884398007481868</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>35.10123061928323</v>
+        <v>30.90850015239535</v>
       </c>
       <c r="H17">
-        <v>15.66315405371853</v>
+        <v>9.813431836000747</v>
       </c>
       <c r="I17">
-        <v>23.898038891199</v>
+        <v>14.09840500480294</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.09862400047147</v>
+        <v>6.624854426821089</v>
       </c>
       <c r="M17">
-        <v>15.55950473035677</v>
+        <v>14.71606239403782</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62392469172019</v>
+        <v>25.64732665957093</v>
       </c>
       <c r="C18">
-        <v>10.90470170935451</v>
+        <v>16.49097083360477</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.52460795704696</v>
+        <v>6.900083201619192</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>35.11216490903217</v>
+        <v>30.66786002298162</v>
       </c>
       <c r="H18">
-        <v>15.6791834310677</v>
+        <v>9.811986042083905</v>
       </c>
       <c r="I18">
-        <v>23.93438718773503</v>
+        <v>14.15083085687158</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.09953251699292</v>
+        <v>6.599412641312655</v>
       </c>
       <c r="M18">
-        <v>15.52814476050429</v>
+        <v>14.53398776016553</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.57987679682372</v>
+        <v>25.53384470871103</v>
       </c>
       <c r="C19">
-        <v>10.87455378843952</v>
+        <v>16.42714011150949</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.52665396795667</v>
+        <v>6.905420064205203</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>35.11617347296246</v>
+        <v>30.58744576670864</v>
       </c>
       <c r="H19">
-        <v>15.6846805709768</v>
+        <v>9.811808342688703</v>
       </c>
       <c r="I19">
-        <v>23.94681089091762</v>
+        <v>14.16913919018533</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.09986539932053</v>
+        <v>6.590849927646782</v>
       </c>
       <c r="M19">
-        <v>15.51755038402858</v>
+        <v>14.47191413243572</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.77735193967665</v>
+        <v>26.04127919397052</v>
       </c>
       <c r="C20">
-        <v>11.00946471748925</v>
+        <v>16.71282019198473</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.51750699459461</v>
+        <v>6.881507425835966</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>35.09935266930982</v>
+        <v>30.95354273818704</v>
       </c>
       <c r="H20">
-        <v>15.66022059027798</v>
+        <v>9.813849259973338</v>
       </c>
       <c r="I20">
-        <v>23.89136715364866</v>
+        <v>14.08897152384747</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.09846785616022</v>
+        <v>6.629587583513713</v>
       </c>
       <c r="M20">
-        <v>15.56531977195759</v>
+        <v>14.74955833605044</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.42725197934266</v>
+        <v>27.68997934264465</v>
       </c>
       <c r="C21">
-        <v>11.44929296308559</v>
+        <v>17.64546087679014</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.48782718135877</v>
+        <v>6.802973669090541</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>35.06426881905356</v>
+        <v>32.25798496213746</v>
       </c>
       <c r="H21">
-        <v>15.58291524138694</v>
+        <v>9.843449088281792</v>
       </c>
       <c r="I21">
-        <v>23.71323237732351</v>
+        <v>13.86116188929951</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.09552826529435</v>
+        <v>6.763333317515485</v>
       </c>
       <c r="M21">
-        <v>15.72734853772396</v>
+        <v>15.65306386058441</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.84125127573572</v>
+        <v>28.72637438595254</v>
       </c>
       <c r="C22">
-        <v>11.72651082244485</v>
+        <v>18.23499166452008</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.46921127437288</v>
+        <v>6.752987719152677</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>35.05743917197092</v>
+        <v>33.16652308460161</v>
       </c>
       <c r="H22">
-        <v>15.53604593526572</v>
+        <v>9.880994305590852</v>
       </c>
       <c r="I22">
-        <v>23.6029129531657</v>
+        <v>13.7466258935935</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.09491294182625</v>
+        <v>6.853442779799801</v>
       </c>
       <c r="M22">
-        <v>15.83425476448184</v>
+        <v>16.22208089614073</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.62131300953667</v>
+        <v>28.17694286719681</v>
       </c>
       <c r="C23">
-        <v>11.57950329695283</v>
+        <v>17.92215831866431</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.47907561730085</v>
+        <v>6.77954396983956</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>35.05960367361225</v>
+        <v>32.676459323834</v>
       </c>
       <c r="H23">
-        <v>15.5607253551199</v>
+        <v>9.859209520494232</v>
       </c>
       <c r="I23">
-        <v>23.66123229700326</v>
+        <v>13.80438630037066</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.09512206230238</v>
+        <v>6.805101056044788</v>
       </c>
       <c r="M23">
-        <v>15.77711271854736</v>
+        <v>15.92032436721402</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76655699804536</v>
+        <v>26.01362667475277</v>
       </c>
       <c r="C24">
-        <v>11.00210609526142</v>
+        <v>16.69723494539809</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.51800533427503</v>
+        <v>6.882813763027697</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>35.10019610723755</v>
+        <v>30.93316000889242</v>
       </c>
       <c r="H24">
-        <v>15.66154551806059</v>
+        <v>9.813654778333774</v>
       </c>
       <c r="I24">
-        <v>23.89438127501711</v>
+        <v>14.09322592390627</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.09853798978136</v>
+        <v>6.627446825415697</v>
       </c>
       <c r="M24">
-        <v>15.56269042042772</v>
+        <v>14.73442277145656</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.80262022683755</v>
+        <v>23.49869691830088</v>
       </c>
       <c r="C25">
-        <v>10.33677843651951</v>
+        <v>15.28849970562646</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.56337298888685</v>
+        <v>7.000019775881111</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>35.21223690985264</v>
+        <v>29.28933665422886</v>
       </c>
       <c r="H25">
-        <v>15.78585965406964</v>
+        <v>9.834616209009823</v>
       </c>
       <c r="I25">
-        <v>24.17188547871214</v>
+        <v>14.53101513991216</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.10784671996139</v>
+        <v>6.447282573420571</v>
       </c>
       <c r="M25">
-        <v>15.33657696960899</v>
+        <v>13.36058214370078</v>
       </c>
       <c r="N25">
         <v>0</v>
